--- a/biology/Médecine/Edmond_Tiersot/Edmond_Tiersot.xlsx
+++ b/biology/Médecine/Edmond_Tiersot/Edmond_Tiersot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Edmond Tiersot est un médecin et homme politique français né le 29 août 1822 à Bourg-en-Bresse (Ain) et décédé le 21 janvier 1883 à Paris.
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Médecin à Bourg-en-Bresse en 1850, il est un opposant au second Empire. Il devient adjoint au maire de Bourg-en-Bresse après le 4 septembre 1870. Il est élu député de l'Ain aux élections complémentaires du 2 juillet 1871 et siège à l'Union républicaine. Il est réélu en 1876, 1877 et 1881. Il est l'un des 363 qui refusent la confiance au gouvernement de Broglie, le 16 mai 1877.
-Il est le père de Julien Tiersot[1].
+Il est le père de Julien Tiersot.
 </t>
         </is>
       </c>
